--- a/biology/Origine et évolution du vivant/Pleistomollusca/Pleistomollusca.xlsx
+++ b/biology/Origine et évolution du vivant/Pleistomollusca/Pleistomollusca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les pléistomollusques (ou Pleistomollusca) sont un clade de l'embranchement des mollusques. 
-Le clade regroupe les gastéropodes et les bivalves[1], deux groupes représentant plus de 95% des espèces de mollusques connues[2]. 
-Une étude phylogénomique récente[3] indique toutefois que les Scaphopodes seraient le groupe frère des Gastéropodes et devraient donc être inclus au sein des Pleistomollusca.
+Le clade regroupe les gastéropodes et les bivalves, deux groupes représentant plus de 95% des espèces de mollusques connues. 
+Une étude phylogénomique récente indique toutefois que les Scaphopodes seraient le groupe frère des Gastéropodes et devraient donc être inclus au sein des Pleistomollusca.
 </t>
         </is>
       </c>
@@ -513,10 +525,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le terme pléistomollusque vient du grec ancien :  πλειστος (pleistos « le plus nombreux »)[2], et du latin mollusca, dérivé de mollis, « mou ».
-Le préfixe "pléisto" a été choisi en référence à la grande diversité de ce clade[2].  
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme pléistomollusque vient du grec ancien :  πλειστος (pleistos « le plus nombreux »), et du latin mollusca, dérivé de mollis, « mou ».
+Le préfixe "pléisto" a été choisi en référence à la grande diversité de ce clade.  
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Synapomorphies</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'établissement de ce clade repose principalement sur des analyses moléculaires, bien que certaines synapomorphies morphologiques aient également été proposées : les muscles rétracteurs larvaires, un anneau de muscle velum, et peut-être la perte de la racine à la base des corps basaux dans leurs cils locomoteurs[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'établissement de ce clade repose principalement sur des analyses moléculaires, bien que certaines synapomorphies morphologiques aient également été proposées : les muscles rétracteurs larvaires, un anneau de muscle velum, et peut-être la perte de la racine à la base des corps basaux dans leurs cils locomoteurs.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Kevin M. Kocot, Johanna T Cannon, Christiane Todt, Mathew R. Citarella, Andrea B. Kohn, Achim Meyer, Scott R. Santos, Christoffer Schander, Leonid L Moroz, Bernhard Lieb et Kenneth M Halanych, « Phylogenomics reveals deep molluscan relationships », Nature, NPG et Springer Science+Business Media, vol. 477, no 7365,‎ 4 septembre 2011, p. 452-456 (ISSN 1476-4687 et 0028-0836, OCLC 01586310, PMID 21892190, PMCID 4024475, DOI 10.1038/NATURE10382)</t>
         </is>
